--- a/complex.xlsx
+++ b/complex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="135" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -319,7 +319,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">关联描述</t>
+      <t xml:space="preserve">{.modelEnName}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -330,7 +330,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">{.modelEnName}</t>
+      <t xml:space="preserve">关联描述</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -352,7 +352,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">详情</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">序号</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.id}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -374,7 +396,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">{.keys}</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">字段中文标识</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.cnMark}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -396,7 +440,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">{.enMark}</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">类型</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.type}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -418,7 +484,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">{.length}</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">单位</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.unit}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -440,7 +528,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">{.defaut}</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">属性描述</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.attributesExpression}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -462,7 +572,29 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">{.datasource}</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">对应数据源表字段</t>
+    </r>
+    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">{.datasourceText}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -484,7 +616,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">函数</t>
+      <t xml:space="preserve">{.algorithmExpression}</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -495,128 +627,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">{.id}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.keys}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.cnMark}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.enMark}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.type}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.lenght}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.unit}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.defaut}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.attributesExpression}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.datasource}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.datasourceText}</t>
-    </r>
-    <phoneticPr alignment="left" fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">{.algorithmExpression}</t>
+      <t xml:space="preserve">函数</t>
     </r>
     <phoneticPr alignment="left" fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +768,12 @@
     <t>这是一个相关描述二</t>
   </si>
   <si>
+    <t>Model3</t>
+  </si>
+  <si>
+    <t>这是一个相关描述三</t>
+  </si>
+  <si>
     <t>标识一</t>
   </si>
   <si>
@@ -766,10 +783,10 @@
     <t>NUMBER</t>
   </si>
   <si>
+    <t>cm</t>
+  </si>
+  <si>
     <t>1024</t>
-  </si>
-  <si>
-    <t>cm</t>
   </si>
   <si>
     <t>属性一</t>
@@ -1444,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1476,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1508,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1540,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1572,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -1604,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1636,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1668,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1700,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1732,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1764,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1796,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1918,13 +1935,17 @@
       <c r="B16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="24"/>
+      <c r="C16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -1948,15 +1969,19 @@
     <row r="17" spans="1:26">
       <c r="A17" s="24"/>
       <c r="B17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -1977,52 +2002,36 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="1:26" ht="15.6" customHeight="true">
+    <row r="18" spans="1:26">
       <c r="A18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>39</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
@@ -2031,52 +2040,34 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:26" ht="15.6" customHeight="true">
-      <c r="A19" s="23" t="s">
-        <v>63</v>
-      </c>
+    <row r="19" spans="1:26">
+      <c r="A19" s="24"/>
       <c r="B19" s="23" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
-      <c r="S19" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
       <c r="V19" s="24"/>
@@ -2085,34 +2076,34 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="1:26" ht="15.6" customHeight="true">
-      <c r="A20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:26">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="G20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="23"/>
+      <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
-      <c r="S20" s="23"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
@@ -2121,52 +2112,34 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="1:26" ht="15.6" customHeight="true">
-      <c r="A21" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="23" t="n">
-        <v>1003.0</v>
+    <row r="21" spans="1:26">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>97</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>85</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
-      <c r="S21" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
@@ -2175,52 +2148,34 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="1:26" ht="15.6" customHeight="true">
-      <c r="A22" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B22" s="23" t="n">
-        <v>1004.0</v>
+    <row r="22" spans="1:26">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>81</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
-      <c r="S22" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
@@ -2231,12 +2186,16 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="B23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -2259,12 +2218,20 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -2287,12 +2254,20 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -2315,12 +2290,20 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -2343,12 +2326,20 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -2371,12 +2362,20 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -2399,12 +2398,20 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>97</v>
+      </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -2427,12 +2434,20 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -2454,13 +2469,21 @@
       <c r="Z30" s="24"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -2484,11 +2507,17 @@
     <row r="32" spans="1:26">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
@@ -2566,7 +2595,7 @@
       <c r="Z34" s="24"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -2594,7 +2623,7 @@
       <c r="Z35" s="24"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -2622,7 +2651,7 @@
       <c r="Z36" s="24"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2650,7 +2679,7 @@
       <c r="Z37" s="24"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -2678,7 +2707,7 @@
       <c r="Z38" s="24"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -2706,7 +2735,7 @@
       <c r="Z39" s="24"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -2734,7 +2763,7 @@
       <c r="Z40" s="24"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -7214,7 +7243,7 @@
       <c r="Z200" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="23">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -7230,25 +7259,14 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:M15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="A20:B23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
 </worksheet>
 </file>